--- a/S73 CAN Traffic Analysis.xlsx
+++ b/S73 CAN Traffic Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50534259\Dropbox\eBike\Super 73 R\modbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353FB643-D7AE-432F-AE77-2CC8C64012BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CDE85C-D696-452A-B663-3464B2DE49D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="MSG Spec" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
     <author>Smith, Paul</author>
   </authors>
   <commentList>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{486A0013-2184-42A8-AD21-B8986A9DA2E1}">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{486A0013-2184-42A8-AD21-B8986A9DA2E1}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{B64C16AB-AC94-4FDD-92A2-AE0BE462A3FC}">
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{B64C16AB-AC94-4FDD-92A2-AE0BE462A3FC}">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="206">
   <si>
     <t>ID</t>
   </si>
@@ -330,12 +330,6 @@
   </si>
   <si>
     <t>Speed, Brake, ...</t>
-  </si>
-  <si>
-    <t>Speed LSB (00-FF)</t>
-  </si>
-  <si>
-    <t>Speed MSB (00-04?)</t>
   </si>
   <si>
     <t>Brake (60/64)</t>
@@ -689,6 +683,39 @@
   </si>
   <si>
     <t>Controller reads throttle position at startup and uses this as Min Throttle to calibrate throttle %.</t>
+  </si>
+  <si>
+    <t>Super73 CAN Traffic Analysis</t>
+  </si>
+  <si>
+    <t>Conventions:</t>
+  </si>
+  <si>
+    <t>D2,D1 : a 16-bit value little endian</t>
+  </si>
+  <si>
+    <t>D5/b3 : 3rd bit (from little end) of D5</t>
+  </si>
+  <si>
+    <t>Speed MSB (00-0F)</t>
+  </si>
+  <si>
+    <t>Speed LSB (00-FE, even #s only)</t>
+  </si>
+  <si>
+    <t>uint(15b)</t>
+  </si>
+  <si>
+    <t>range remaining?</t>
+  </si>
+  <si>
+    <t>Stays all zeros (except H7=0x10) when not moving.  Other bytes go non-zero while throttle pressed.. Maybe torque, current flow?  Go back to zero when off throttle, even when in motion (coasting)</t>
+  </si>
+  <si>
+    <t>(power/torque related data maybe?  Zeros when at rest or coasting, non-zeros when driving under power.</t>
+  </si>
+  <si>
+    <t>Ctrl?</t>
   </si>
 </sst>
 </file>
@@ -772,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -804,6 +831,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,9 +1131,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC40B2B-00BA-4645-9F63-365F311F9F0B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:Y27"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1112,269 +1144,139 @@
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="11.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="12" width="10.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="14.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="8.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="14" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="23" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="12" width="10.140625" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="14" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="23" width="16.140625" customWidth="1"/>
     <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="59.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="33" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="33" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G5" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="N2" s="13" t="s">
+      <c r="L5" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="M5" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P5" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y5" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="14">
-        <v>200</v>
-      </c>
-      <c r="D3" s="14">
-        <v>8</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-    </row>
-    <row r="4" spans="2:25" ht="33" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="14">
-        <v>201</v>
-      </c>
-      <c r="D4" s="14">
-        <v>5</v>
-      </c>
-      <c r="E4" s="14">
-        <v>100</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-    </row>
-    <row r="5" spans="2:25" ht="33" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14">
-        <v>5</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14">
-        <v>1</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-    </row>
-    <row r="6" spans="2:25" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="14">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D6" s="14">
         <v>8</v>
       </c>
-      <c r="E6" s="14">
-        <v>1000</v>
-      </c>
+      <c r="E6" s="14"/>
       <c r="F6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>170</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="14" t="s">
-        <v>171</v>
-      </c>
+      <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
@@ -1384,135 +1286,144 @@
       <c r="X6" s="14"/>
       <c r="Y6" s="14"/>
     </row>
-    <row r="7" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C7" s="14">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D7" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="14">
-        <v>31835</v>
+        <v>100</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
+      <c r="P7" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>199</v>
+      </c>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
       <c r="X7" s="14"/>
-      <c r="Y7" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="14">
-        <v>210</v>
-      </c>
+      <c r="Y7" s="14"/>
+    </row>
+    <row r="8" spans="1:25" ht="33" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
-        <v>86</v>
-      </c>
+      <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+        <v>164</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>1</v>
+      </c>
       <c r="M8" s="14" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="14">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>37</v>
-      </c>
-      <c r="R8" s="14">
-        <v>33</v>
-      </c>
-      <c r="S8" s="14">
-        <v>52</v>
-      </c>
-      <c r="T8" s="14">
-        <v>58</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="V8" s="14">
-        <v>32</v>
-      </c>
-      <c r="W8" s="14">
-        <v>30</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y8" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+    </row>
+    <row r="9" spans="1:25" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C9" s="14">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D9" s="14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="14">
-        <v>31836</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="O9" s="14" t="s">
+        <v>169</v>
+      </c>
       <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
@@ -1520,89 +1431,65 @@
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
-      <c r="Y9" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" ht="33" x14ac:dyDescent="0.25">
+      <c r="Y9" s="14"/>
+    </row>
+    <row r="10" spans="1:25" ht="66" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="14">
-        <v>211</v>
+        <v>205</v>
+      </c>
+      <c r="C10" s="16">
+        <v>203</v>
       </c>
       <c r="D10" s="14">
         <v>8</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="14">
+        <v>100</v>
+      </c>
       <c r="F10" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>173</v>
-      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="14" t="s">
-        <v>75</v>
-      </c>
+      <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="14">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>36</v>
-      </c>
-      <c r="R10" s="14">
-        <v>30</v>
-      </c>
-      <c r="S10" s="14">
-        <v>33</v>
-      </c>
-      <c r="T10" s="14">
-        <v>30</v>
-      </c>
-      <c r="U10" s="14">
-        <v>31</v>
-      </c>
-      <c r="V10" s="14">
-        <v>30</v>
-      </c>
-      <c r="W10" s="14">
-        <v>36</v>
-      </c>
-      <c r="X10" s="14">
-        <v>6030106</v>
-      </c>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
       <c r="Y10" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="14">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D11" s="14">
         <v>0</v>
       </c>
       <c r="E11" s="14">
-        <v>22121</v>
+        <v>31835</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -1623,173 +1510,191 @@
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" ht="33" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="14">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D12" s="14">
         <v>8</v>
       </c>
-      <c r="E12" s="14">
-        <v>50</v>
-      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="14" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="14" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
+      <c r="P12" s="14">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>37</v>
+      </c>
+      <c r="R12" s="14">
+        <v>33</v>
+      </c>
+      <c r="S12" s="14">
+        <v>52</v>
+      </c>
+      <c r="T12" s="14">
+        <v>58</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="V12" s="14">
+        <v>32</v>
+      </c>
+      <c r="W12" s="14">
+        <v>30</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="Y12" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" ht="49.5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C13" s="14">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D13" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E13" s="14">
-        <v>50</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>195</v>
-      </c>
+        <v>31836</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
-      <c r="R13" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>186</v>
-      </c>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" ht="49.5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="33" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C14" s="14">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="D14" s="14">
         <v>8</v>
       </c>
-      <c r="E14" s="14">
-        <v>100</v>
-      </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="M14" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-    </row>
-    <row r="15" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="P14" s="14">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>36</v>
+      </c>
+      <c r="R14" s="14">
+        <v>30</v>
+      </c>
+      <c r="S14" s="14">
+        <v>33</v>
+      </c>
+      <c r="T14" s="14">
+        <v>30</v>
+      </c>
+      <c r="U14" s="14">
+        <v>31</v>
+      </c>
+      <c r="V14" s="14">
+        <v>30</v>
+      </c>
+      <c r="W14" s="14">
+        <v>36</v>
+      </c>
+      <c r="X14" s="14">
+        <v>6030106</v>
+      </c>
+      <c r="Y14" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15" s="14">
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="D15" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E15" s="14">
-        <v>31834</v>
-      </c>
-      <c r="F15" s="14"/>
+        <v>22121</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1799,138 +1704,142 @@
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>0</v>
-      </c>
-      <c r="R15" s="14">
-        <v>0</v>
-      </c>
-      <c r="S15" s="14">
-        <v>0</v>
-      </c>
-      <c r="T15" s="14">
-        <v>0</v>
-      </c>
-      <c r="U15" s="14">
-        <v>0</v>
-      </c>
-      <c r="V15" s="14">
-        <v>0</v>
-      </c>
-      <c r="W15" s="14">
-        <v>0</v>
-      </c>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
       <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-    </row>
-    <row r="16" spans="2:25" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="15">
-        <v>400</v>
-      </c>
-      <c r="D16" s="15">
-        <v>8</v>
-      </c>
-      <c r="E16" s="15">
-        <v>107</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="Y15" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="33" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="14">
+        <v>222</v>
+      </c>
+      <c r="D16" s="14">
+        <v>8</v>
+      </c>
+      <c r="E16" s="14">
+        <v>50</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="S16" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="P16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C17" s="14">
-        <v>401</v>
+        <v>222</v>
       </c>
       <c r="D17" s="14">
         <v>8</v>
       </c>
       <c r="E17" s="14">
-        <v>106</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="U17" s="14" t="s">
-        <v>110</v>
-      </c>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:25" ht="33" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C18" s="14">
-        <v>402</v>
+        <v>300</v>
       </c>
       <c r="D18" s="14">
         <v>8</v>
       </c>
       <c r="E18" s="14">
-        <v>3183</v>
+        <v>100</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -1942,38 +1851,34 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
+      <c r="R18" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="S18" s="14"/>
       <c r="T18" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="U18" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="V18" s="14" t="s">
-        <v>116</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
       <c r="W18" s="14"/>
       <c r="X18" s="14"/>
-      <c r="Y18" s="14" t="s">
-        <v>117</v>
-      </c>
+      <c r="Y18" s="14"/>
     </row>
     <row r="19" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C19" s="14">
-        <v>403</v>
+        <v>302</v>
       </c>
       <c r="D19" s="14">
         <v>8</v>
       </c>
       <c r="E19" s="14">
-        <v>3184</v>
+        <v>31834</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -1985,40 +1890,48 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="U19" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="V19" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="W19" s="14"/>
+      <c r="P19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="14">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14">
+        <v>0</v>
+      </c>
+      <c r="T19" s="14">
+        <v>0</v>
+      </c>
+      <c r="U19" s="14">
+        <v>0</v>
+      </c>
+      <c r="V19" s="14">
+        <v>0</v>
+      </c>
+      <c r="W19" s="14">
+        <v>0</v>
+      </c>
       <c r="X19" s="14"/>
-      <c r="Y19" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="14">
-        <v>404</v>
-      </c>
-      <c r="D20" s="14">
-        <v>8</v>
-      </c>
-      <c r="E20" s="14">
-        <v>3183</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>122</v>
+      <c r="Y19" s="14"/>
+    </row>
+    <row r="20" spans="2:25" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="15">
+        <v>400</v>
+      </c>
+      <c r="D20" s="15">
+        <v>8</v>
+      </c>
+      <c r="E20" s="15">
+        <v>107</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -2032,35 +1945,37 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="T20" s="14"/>
+        <v>182</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:25" ht="49.5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" s="14">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D21" s="14">
         <v>8</v>
       </c>
       <c r="E21" s="14">
-        <v>4249</v>
+        <v>106</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -2072,51 +1987,41 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="R21" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="S21" s="14" t="s">
-        <v>130</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
       <c r="T21" s="14" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="U21" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="V21" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="W21" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="X21" s="14" t="s">
-        <v>135</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
       <c r="Y21" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="2:25" ht="49.5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" ht="33" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" s="14">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D22" s="14">
         <v>8</v>
       </c>
       <c r="E22" s="14">
-        <v>30491</v>
+        <v>3183</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -2128,52 +2033,40 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q22" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="R22" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="S22" s="14" t="s">
-        <v>141</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
       <c r="T22" s="14" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="U22" s="14" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="V22" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="W22" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="X22" s="14" t="s">
-        <v>145</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
       <c r="Y22" s="14" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C23" s="14">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D23" s="14">
         <v>8</v>
       </c>
       <c r="E23" s="14">
-        <v>4247</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>147</v>
-      </c>
+        <v>3184</v>
+      </c>
+      <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -2183,48 +2076,40 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
-      <c r="P23" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>0</v>
-      </c>
-      <c r="R23" s="14">
-        <v>0</v>
-      </c>
-      <c r="S23" s="14">
-        <v>0</v>
-      </c>
-      <c r="T23" s="14">
-        <v>0</v>
-      </c>
-      <c r="U23" s="14">
-        <v>0</v>
-      </c>
-      <c r="V23" s="14">
-        <v>0</v>
-      </c>
-      <c r="W23" s="14">
-        <v>0</v>
-      </c>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U23" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="W23" s="14"/>
       <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-    </row>
-    <row r="24" spans="2:25" ht="33" x14ac:dyDescent="0.25">
+      <c r="Y23" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="14">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="D24" s="14">
         <v>8</v>
       </c>
       <c r="E24" s="14">
-        <v>0</v>
+        <v>3183</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -2235,50 +2120,38 @@
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
-      <c r="P24" s="14">
-        <v>88</v>
-      </c>
-      <c r="Q24" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="R24" s="14">
-        <v>88</v>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="S24" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="T24" s="14">
-        <v>88</v>
-      </c>
-      <c r="U24" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="V24" s="14">
-        <v>88</v>
-      </c>
-      <c r="W24" s="14" t="s">
-        <v>149</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="2:25" ht="33" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="C25" s="14">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="D25" s="14">
         <v>8</v>
       </c>
       <c r="E25" s="14">
-        <v>2124</v>
+        <v>4249</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -2289,50 +2162,52 @@
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
-      <c r="P25" s="14">
-        <v>30</v>
-      </c>
-      <c r="Q25" s="14">
-        <v>32</v>
-      </c>
-      <c r="R25" s="14">
-        <v>30</v>
-      </c>
-      <c r="S25" s="14">
-        <v>35</v>
-      </c>
-      <c r="T25" s="14">
-        <v>56</v>
-      </c>
-      <c r="U25" s="14">
-        <v>35</v>
-      </c>
-      <c r="V25" s="14">
-        <v>30</v>
-      </c>
-      <c r="W25" s="14">
-        <v>31</v>
+      <c r="P25" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="U25" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="X25" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y25" s="14"/>
-    </row>
-    <row r="26" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="Y25" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="C26" s="14">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="D26" s="14">
         <v>8</v>
       </c>
       <c r="E26" s="14">
-        <v>2124</v>
+        <v>30491</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -2343,50 +2218,52 @@
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
-      <c r="P26" s="14">
-        <v>0</v>
+      <c r="P26" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="Q26" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R26" s="14">
-        <v>0</v>
-      </c>
-      <c r="S26" s="14">
-        <v>0</v>
-      </c>
-      <c r="T26" s="14">
-        <v>0</v>
-      </c>
-      <c r="U26" s="14">
-        <v>33</v>
-      </c>
-      <c r="V26" s="14">
-        <v>30</v>
-      </c>
-      <c r="W26" s="14">
-        <v>30</v>
+        <v>137</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="U26" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="W26" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="X26" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y26" s="14"/>
-    </row>
-    <row r="27" spans="2:25" ht="33" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="Y26" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="C27" s="14">
+        <v>412</v>
       </c>
       <c r="D27" s="14">
         <v>8</v>
       </c>
       <c r="E27" s="14">
-        <v>100</v>
+        <v>4247</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -2397,28 +2274,242 @@
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
+      <c r="P27" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>0</v>
+      </c>
+      <c r="R27" s="14">
+        <v>0</v>
+      </c>
+      <c r="S27" s="14">
+        <v>0</v>
+      </c>
+      <c r="T27" s="14">
+        <v>0</v>
+      </c>
+      <c r="U27" s="14">
+        <v>0</v>
+      </c>
+      <c r="V27" s="14">
+        <v>0</v>
+      </c>
+      <c r="W27" s="14">
+        <v>0</v>
+      </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
     </row>
+    <row r="28" spans="2:25" ht="33" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="14">
+        <v>423</v>
+      </c>
+      <c r="D28" s="14">
+        <v>8</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14">
+        <v>88</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="R28" s="14">
+        <v>88</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="T28" s="14">
+        <v>88</v>
+      </c>
+      <c r="U28" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="V28" s="14">
+        <v>88</v>
+      </c>
+      <c r="W28" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" ht="33" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="14">
+        <v>466</v>
+      </c>
+      <c r="D29" s="14">
+        <v>8</v>
+      </c>
+      <c r="E29" s="14">
+        <v>2124</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>32</v>
+      </c>
+      <c r="R29" s="14">
+        <v>30</v>
+      </c>
+      <c r="S29" s="14">
+        <v>35</v>
+      </c>
+      <c r="T29" s="14">
+        <v>56</v>
+      </c>
+      <c r="U29" s="14">
+        <v>35</v>
+      </c>
+      <c r="V29" s="14">
+        <v>30</v>
+      </c>
+      <c r="W29" s="14">
+        <v>31</v>
+      </c>
+      <c r="X29" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y29" s="14"/>
+    </row>
+    <row r="30" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="14">
+        <v>466</v>
+      </c>
+      <c r="D30" s="14">
+        <v>8</v>
+      </c>
+      <c r="E30" s="14">
+        <v>2124</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R30" s="14">
+        <v>0</v>
+      </c>
+      <c r="S30" s="14">
+        <v>0</v>
+      </c>
+      <c r="T30" s="14">
+        <v>0</v>
+      </c>
+      <c r="U30" s="14">
+        <v>33</v>
+      </c>
+      <c r="V30" s="14">
+        <v>30</v>
+      </c>
+      <c r="W30" s="14">
+        <v>30</v>
+      </c>
+      <c r="X30" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y30" s="14"/>
+    </row>
+    <row r="31" spans="2:25" ht="33" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="14">
+        <v>8</v>
+      </c>
+      <c r="E31" s="14">
+        <v>100</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="P4:S5 U4:W5 P6:W11 P14:W27 P12:Q13 T12:W13">
+  <conditionalFormatting sqref="P7:S8 U7:W8 P9:W15 P18:W31 P16:Q17 T16:W17">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>COLUMN(P4)-COLUMN($P4)+1&gt;$D4</formula>
+      <formula>COLUMN(P7)-COLUMN($P7)+1&gt;$D7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5 R13:S13">
+  <conditionalFormatting sqref="T8 R17:S17">
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>COLUMN(R5)-COLUMN($P4)+1&gt;$D4</formula>
+      <formula>COLUMN(R8)-COLUMN($P7)+1&gt;$D7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/S73 CAN Traffic Analysis.xlsx
+++ b/S73 CAN Traffic Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50534259\Dropbox\eBike\Super 73 R\modbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B44B31-333D-48F2-901B-DEB507B223BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EF10D5-9B5E-4618-B617-B38E5127112A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSG Definition" sheetId="4" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="297">
   <si>
     <t>B1</t>
   </si>
@@ -923,6 +923,45 @@
   </si>
   <si>
     <t>km remaining</t>
+  </si>
+  <si>
+    <t>SOC%</t>
+  </si>
+  <si>
+    <t>Increments 1 each time this frame is sent, for 3 or 4 frames then repeats.  Wraps around from 0x03 (or 0x02) back to 0x00.</t>
+  </si>
+  <si>
+    <t>Frame counter (Sort of)</t>
+  </si>
+  <si>
+    <t>Yet another SOC</t>
+  </si>
+  <si>
+    <t>Weird</t>
+  </si>
+  <si>
+    <t>30d</t>
+  </si>
+  <si>
+    <t>65,023d</t>
+  </si>
+  <si>
+    <t>Definitly a curve, changes based on ride activity</t>
+  </si>
+  <si>
+    <t>Incremental Limp status?</t>
+  </si>
+  <si>
+    <t>0d</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>Limp state? (0d-3d)</t>
+  </si>
+  <si>
+    <t>Frame Counter (0x00 - 0x02 or 0x03)</t>
   </si>
 </sst>
 </file>
@@ -1049,315 +1088,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
+  <dxfs count="82">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1822,6 +1553,391 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1843,31 +1959,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{972CA7E4-093A-4B5D-AE62-2A65F7971053}" name="Table2" displayName="Table2" ref="B5:W48" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
-  <autoFilter ref="B5:W48" xr:uid="{838C0DAC-AE37-4511-A6D0-1B3D8E84F748}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{972CA7E4-093A-4B5D-AE62-2A65F7971053}" name="Table2" displayName="Table2" ref="B5:W52" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="B5:W52" xr:uid="{838C0DAC-AE37-4511-A6D0-1B3D8E84F748}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{5E08D9C2-32E4-4629-A41C-F9E9E15E56BE}" name="Src" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{315345A2-96E5-4BB5-8393-36CE7A040005}" name="Msg ID" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{59AD1DFF-1987-4608-8284-DA35BD881676}" name="Data Len" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{50AD1172-B478-4DE0-861C-AD0D3E733CE1}" name="Per (ms)" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{950358CF-D842-43EE-9CD9-274037FA146A}" name="Frame Function" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{00AAD989-DB03-4BA3-913E-453D6B6537E6}" name="Parameter" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{F425922C-AE83-40B9-BAC6-43BC46C60CEF}" name="Data Type (len)" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{C405B36C-136C-4A1E-A761-564ABF2E8437}" name="Const / Variable" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{4061FF33-E6F8-4BD4-B68B-ADCADE1034C6}" name="Loc in Data Field" dataDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{881647E3-632A-4CB3-B19E-1FF648AFBB00}" name="Range lo" dataDxfId="59"/>
-    <tableColumn id="11" xr3:uid="{87A124BB-C861-4637-959B-CFAE2A59FC6C}" name="Range hi" dataDxfId="58"/>
-    <tableColumn id="12" xr3:uid="{D1199CC2-6B48-4854-B6F8-B451205CEEE0}" name="Units" dataDxfId="57"/>
-    <tableColumn id="13" xr3:uid="{91AF218D-0223-42A0-8C94-AD13F07842CF}" name="B1" dataDxfId="56"/>
-    <tableColumn id="14" xr3:uid="{A46E6E12-CBBE-48A8-8A2A-4FB408025758}" name="B2" dataDxfId="55"/>
-    <tableColumn id="15" xr3:uid="{AD04C2B4-F98C-45DA-91F4-B9AFD036F815}" name="B3" dataDxfId="54"/>
-    <tableColumn id="16" xr3:uid="{0D81D2A9-AD87-40F6-B990-24E7D4F9E7BB}" name="B4" dataDxfId="53"/>
-    <tableColumn id="17" xr3:uid="{94BB4815-1913-42DA-9B55-F536D114BA6B}" name="B5" dataDxfId="52"/>
-    <tableColumn id="18" xr3:uid="{3AA91E8E-8199-4E42-9392-C5B148F4F335}" name="B6" dataDxfId="51"/>
-    <tableColumn id="19" xr3:uid="{A9B2E2AF-8C16-4F97-A661-0B91D093B736}" name="B7" dataDxfId="50"/>
-    <tableColumn id="20" xr3:uid="{82D18C16-2784-4C6B-BD41-FF3639E485F4}" name="B8" dataDxfId="49"/>
-    <tableColumn id="21" xr3:uid="{BFF65C6F-130C-4D41-9485-B029A147F0FD}" name="ASCII" dataDxfId="48"/>
-    <tableColumn id="22" xr3:uid="{58F91247-4133-4D26-A597-E5B65564CB91}" name="Note" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{5E08D9C2-32E4-4629-A41C-F9E9E15E56BE}" name="Src" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{315345A2-96E5-4BB5-8393-36CE7A040005}" name="Msg ID" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{59AD1DFF-1987-4608-8284-DA35BD881676}" name="Data Len" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{50AD1172-B478-4DE0-861C-AD0D3E733CE1}" name="Per (ms)" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{950358CF-D842-43EE-9CD9-274037FA146A}" name="Frame Function" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00AAD989-DB03-4BA3-913E-453D6B6537E6}" name="Parameter" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{F425922C-AE83-40B9-BAC6-43BC46C60CEF}" name="Data Type (len)" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{C405B36C-136C-4A1E-A761-564ABF2E8437}" name="Const / Variable" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{4061FF33-E6F8-4BD4-B68B-ADCADE1034C6}" name="Loc in Data Field" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{881647E3-632A-4CB3-B19E-1FF648AFBB00}" name="Range lo" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{87A124BB-C861-4637-959B-CFAE2A59FC6C}" name="Range hi" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{D1199CC2-6B48-4854-B6F8-B451205CEEE0}" name="Units" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{91AF218D-0223-42A0-8C94-AD13F07842CF}" name="B1" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{A46E6E12-CBBE-48A8-8A2A-4FB408025758}" name="B2" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{AD04C2B4-F98C-45DA-91F4-B9AFD036F815}" name="B3" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{0D81D2A9-AD87-40F6-B990-24E7D4F9E7BB}" name="B4" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{94BB4815-1913-42DA-9B55-F536D114BA6B}" name="B5" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{3AA91E8E-8199-4E42-9392-C5B148F4F335}" name="B6" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{A9B2E2AF-8C16-4F97-A661-0B91D093B736}" name="B7" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{82D18C16-2784-4C6B-BD41-FF3639E485F4}" name="B8" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{BFF65C6F-130C-4D41-9485-B029A147F0FD}" name="ASCII" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{58F91247-4133-4D26-A597-E5B65564CB91}" name="Note" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1884,13 +2000,13 @@
     <tableColumn id="8" xr3:uid="{C84E08AD-8793-4929-A601-77F177055984}" name="Model"/>
     <tableColumn id="5" xr3:uid="{0C89E328-D779-41A9-AC3F-A1110D2848D0}" name="B V"/>
     <tableColumn id="6" xr3:uid="{21CE52CB-2ADB-4BDE-BE83-84E46A012CD6}" name="B Ah"/>
-    <tableColumn id="9" xr3:uid="{5641E9CE-87D8-4516-843C-B92FF9B1B595}" name="B Wh" dataDxfId="46">
+    <tableColumn id="9" xr3:uid="{5641E9CE-87D8-4516-843C-B92FF9B1B595}" name="B Wh" dataDxfId="2">
       <calculatedColumnFormula>Table3[[#This Row],[B V]]*Table3[[#This Row],[B Ah]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{A3D55D59-8209-4A31-A1BC-41DDBF9E5875}" name="Owner"/>
     <tableColumn id="13" xr3:uid="{DF7F22F2-1A9B-4C50-BBCA-F64075F57871}" name="Used on"/>
-    <tableColumn id="10" xr3:uid="{B0825803-5452-4C13-8720-F86B61B7ED25}" name="Acquired" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{747CF8CB-26CE-4011-95EE-2A981327E7C0}" name="History" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{B0825803-5452-4C13-8720-F86B61B7ED25}" name="Acquired" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{747CF8CB-26CE-4011-95EE-2A981327E7C0}" name="History" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2162,13 +2278,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2280,7 +2396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -2294,178 +2410,152 @@
       <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="N6" s="2"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="T6" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="1:23" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="9">
-        <v>201</v>
-      </c>
-      <c r="D7" s="9">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5">
-        <v>100</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="W6" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="7"/>
+      <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="5" t="s">
-        <v>127</v>
-      </c>
+      <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" ht="33" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="9">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5">
-        <v>100</v>
-      </c>
-      <c r="F8" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>89</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K8" s="5">
         <v>0</v>
       </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="49.5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D9" s="9">
         <v>8</v>
       </c>
-      <c r="E9" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>270</v>
+        <v>91</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>89</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5" t="s">
-        <v>86</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="33" x14ac:dyDescent="0.25">
@@ -2473,290 +2563,308 @@
         <v>13</v>
       </c>
       <c r="C10" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D10" s="9">
         <v>8</v>
       </c>
-      <c r="E10" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>273</v>
-      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>278</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="R10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="33" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>273</v>
+        <v>100</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>275</v>
+        <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>89</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>240</v>
-      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="66" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="33" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10">
-        <v>203</v>
+      <c r="C12" s="9">
+        <v>201</v>
       </c>
       <c r="D12" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E12" s="5">
         <v>100</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>221</v>
-      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="5" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>229</v>
+        <v>92</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="J12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10">
-        <v>203</v>
+      <c r="C13" s="9">
+        <v>202</v>
       </c>
       <c r="D13" s="9">
         <v>8</v>
       </c>
       <c r="E13" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>89</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="11"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="33" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10">
-        <v>203</v>
+      <c r="C14" s="9">
+        <v>202</v>
       </c>
       <c r="D14" s="9">
         <v>8</v>
       </c>
       <c r="E14" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="11"/>
+        <v>132</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10">
-        <v>203</v>
+      <c r="C15" s="9">
+        <v>202</v>
       </c>
       <c r="D15" s="9">
         <v>8</v>
       </c>
       <c r="E15" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="11"/>
+        <v>275</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="33" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="66" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -2773,30 +2881,34 @@
         <v>221</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="T16" s="8"/>
-      <c r="U16" s="11"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" ht="33" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
@@ -2813,227 +2925,205 @@
         <v>221</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="8"/>
+      <c r="N17" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
-      <c r="T17" s="8" t="s">
-        <v>239</v>
-      </c>
+      <c r="T17" s="8"/>
       <c r="U17" s="11"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="33" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="9">
-        <v>210</v>
+        <v>13</v>
+      </c>
+      <c r="C18" s="10">
+        <v>203</v>
       </c>
       <c r="D18" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E18" s="5">
-        <v>31835</v>
+        <v>100</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="11"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="2:23" ht="33" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="9">
-        <v>210</v>
+      <c r="C19" s="10">
+        <v>203</v>
       </c>
       <c r="D19" s="9">
         <v>8</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5">
+        <v>100</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>108</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="5"/>
       <c r="W19" s="5" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="2:23" ht="33" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="9">
-        <v>211</v>
+        <v>13</v>
+      </c>
+      <c r="C20" s="10">
+        <v>203</v>
       </c>
       <c r="D20" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E20" s="5">
-        <v>31836</v>
+        <v>100</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="11"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="2:23" ht="33" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="9">
-        <v>211</v>
+      <c r="C21" s="10">
+        <v>203</v>
       </c>
       <c r="D21" s="9">
         <v>8</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5">
+        <v>100</v>
+      </c>
       <c r="F21" s="5" t="s">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>88</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>108</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="V21" s="5">
-        <v>6030106</v>
-      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="U21" s="11"/>
+      <c r="V21" s="5"/>
       <c r="W21" s="5" t="s">
-        <v>131</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="33" x14ac:dyDescent="0.25">
@@ -3041,16 +3131,16 @@
         <v>16</v>
       </c>
       <c r="C22" s="9">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>22121</v>
+        <v>31835</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -3077,483 +3167,481 @@
         <v>13</v>
       </c>
       <c r="C23" s="9">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D23" s="9">
         <v>8</v>
       </c>
-      <c r="E23" s="5">
-        <v>50</v>
-      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>19</v>
+        <v>246</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>88</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>206</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
+        <v>257</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="W23" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" ht="49.5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" ht="33" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C24" s="9">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D24" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5">
-        <v>50</v>
+        <v>31836</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>206</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" ht="33" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C25" s="9">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="D25" s="9">
         <v>8</v>
       </c>
-      <c r="E25" s="5">
-        <v>3000</v>
-      </c>
+      <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="I25" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5" t="s">
-        <v>140</v>
+        <v>263</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>140</v>
+        <v>263</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="V25" s="5"/>
+        <v>264</v>
+      </c>
+      <c r="V25" s="5">
+        <v>6030106</v>
+      </c>
       <c r="W25" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" ht="33" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C26" s="9">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="D26" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E26" s="5">
-        <v>3000</v>
+        <v>22121</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>266</v>
+        <v>18</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>255</v>
-      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
+      <c r="W26" s="5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="27" spans="2:23" ht="33" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27" s="9">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="D27" s="9">
         <v>8</v>
       </c>
       <c r="E27" s="5">
+        <v>50</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="H27" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" ht="33" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" s="9">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="D28" s="9">
         <v>8</v>
       </c>
       <c r="E28" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="K28" s="5">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-    </row>
-    <row r="29" spans="2:23" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="W28" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
       <c r="C29" s="9">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="D29" s="9">
         <v>8</v>
       </c>
       <c r="E29" s="5">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>93</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="L29" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="O29" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="R29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
+        <v>248</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="V29" s="5"/>
       <c r="W29" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" ht="66" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
       <c r="C30" s="9">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="D30" s="9">
         <v>8</v>
       </c>
       <c r="E30" s="5">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>235</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="U30" s="5" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="V30" s="5"/>
-      <c r="W30" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="W30" s="5"/>
+    </row>
+    <row r="31" spans="2:23" ht="33" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="9">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D31" s="9">
         <v>8</v>
       </c>
       <c r="E31" s="5">
-        <v>31834</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q31" s="5">
+        <v>100</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="R31" s="5">
-        <v>0</v>
-      </c>
-      <c r="S31" s="5">
-        <v>0</v>
-      </c>
-      <c r="T31" s="5">
-        <v>0</v>
-      </c>
-      <c r="U31" s="5">
-        <v>0</v>
-      </c>
+      <c r="K31" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-    </row>
-    <row r="32" spans="2:23" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>26</v>
+      <c r="W31" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" ht="33" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C32" s="9">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D32" s="9">
         <v>8</v>
       </c>
-      <c r="E32" s="6">
-        <v>107</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>27</v>
+      <c r="E32" s="5">
+        <v>100</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>92</v>
@@ -3562,7 +3650,7 @@
         <v>89</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="K32" s="5">
         <v>0</v>
@@ -3576,471 +3664,495 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>196</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="5" t="s">
-        <v>194</v>
-      </c>
+      <c r="W32" s="5"/>
     </row>
     <row r="33" spans="2:23" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>26</v>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C33" s="9">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D33" s="9">
         <v>8</v>
       </c>
-      <c r="E33" s="6">
-        <v>107</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>27</v>
+      <c r="E33" s="5">
+        <v>100</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>89</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="K33" s="5">
-        <v>0</v>
-      </c>
-      <c r="L33" s="5">
-        <v>1</v>
+        <v>122</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="5" t="s">
-        <v>197</v>
-      </c>
+      <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
+      <c r="R33" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" ht="33" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>26</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" ht="66" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C34" s="9">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D34" s="9">
         <v>8</v>
       </c>
-      <c r="E34" s="6">
-        <v>107</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>27</v>
+      <c r="E34" s="5">
+        <v>100</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>89</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="K34" s="5">
-        <v>0</v>
-      </c>
-      <c r="L34" s="5">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>108</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
+      <c r="U34" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-    </row>
-    <row r="35" spans="2:23" ht="33" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>26</v>
+      <c r="W34" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C35" s="9">
-        <v>400</v>
+        <v>302</v>
       </c>
       <c r="D35" s="9">
         <v>8</v>
       </c>
-      <c r="E35" s="6">
-        <v>107</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
+      <c r="E35" s="5">
+        <v>31834</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0</v>
+      </c>
+      <c r="R35" s="5">
+        <v>0</v>
+      </c>
+      <c r="S35" s="5">
+        <v>0</v>
+      </c>
+      <c r="T35" s="5">
+        <v>0</v>
+      </c>
+      <c r="U35" s="5">
+        <v>0</v>
+      </c>
       <c r="V35" s="5"/>
-      <c r="W35" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" ht="33" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="2:23" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="9">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D36" s="9">
         <v>8</v>
       </c>
-      <c r="E36" s="5">
-        <v>106</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>28</v>
+      <c r="E36" s="6">
+        <v>107</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>89</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
       <c r="W36" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="9">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D37" s="9">
         <v>8</v>
       </c>
-      <c r="E37" s="5">
-        <v>106</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>28</v>
+      <c r="E37" s="6">
+        <v>107</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>89</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
+      <c r="P37" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="Q37" s="5"/>
-      <c r="R37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="2:23" ht="33" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="9">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D38" s="9">
         <v>8</v>
       </c>
-      <c r="E38" s="5">
-        <v>3183</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>33</v>
+      <c r="E38" s="6">
+        <v>107</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N38" s="5"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="P38" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+      <c r="W38" s="5"/>
+    </row>
+    <row r="39" spans="2:23" ht="33" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C39" s="9">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D39" s="9">
         <v>8</v>
       </c>
-      <c r="E39" s="5">
-        <v>3184</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="E39" s="6">
+        <v>107</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" ht="16.5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" ht="33" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C40" s="9">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D40" s="9">
         <v>8</v>
       </c>
       <c r="E40" s="5">
-        <v>3183</v>
+        <v>106</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
+      <c r="L40" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
+      <c r="N40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" ht="49.5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="9">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D41" s="9">
         <v>8</v>
       </c>
       <c r="E41" s="5">
-        <v>4249</v>
+        <v>106</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
       <c r="R41" s="5" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
       <c r="W41" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" ht="49.5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" ht="33" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="9">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D42" s="9">
         <v>8</v>
       </c>
       <c r="E42" s="5">
-        <v>30491</v>
+        <v>3183</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -4048,34 +4160,24 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
       <c r="R42" s="5" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="T42" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
       <c r="W42" s="5" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:23" ht="16.5" x14ac:dyDescent="0.25">
@@ -4083,17 +4185,15 @@
         <v>26</v>
       </c>
       <c r="C43" s="9">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D43" s="9">
         <v>8</v>
       </c>
       <c r="E43" s="5">
-        <v>4247</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>68</v>
-      </c>
+        <v>3184</v>
+      </c>
+      <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -4101,48 +4201,40 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="5">
-        <v>0</v>
-      </c>
-      <c r="O43" s="5">
-        <v>0</v>
-      </c>
-      <c r="P43" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>0</v>
-      </c>
-      <c r="R43" s="5">
-        <v>0</v>
-      </c>
-      <c r="S43" s="5">
-        <v>0</v>
-      </c>
-      <c r="T43" s="5">
-        <v>0</v>
-      </c>
-      <c r="U43" s="5">
-        <v>0</v>
-      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U43" s="5"/>
       <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-    </row>
-    <row r="44" spans="2:23" ht="33" x14ac:dyDescent="0.25">
+      <c r="W43" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="9">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="D44" s="9">
         <v>8</v>
       </c>
       <c r="E44" s="5">
-        <v>0</v>
+        <v>3183</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -4151,50 +4243,38 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="5">
-        <v>88</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P44" s="5">
-        <v>88</v>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="R44" s="5">
-        <v>88</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="T44" s="5">
-        <v>88</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>70</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
       <c r="V44" s="5"/>
       <c r="W44" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" ht="33" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C45" s="9">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="D45" s="9">
         <v>8</v>
       </c>
       <c r="E45" s="5">
-        <v>2124</v>
+        <v>4249</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -4203,116 +4283,106 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="5">
-        <v>30</v>
-      </c>
-      <c r="O45" s="5">
-        <v>32</v>
-      </c>
-      <c r="P45" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>35</v>
-      </c>
-      <c r="R45" s="5">
+      <c r="N45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V45" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="S45" s="5">
-        <v>35</v>
-      </c>
-      <c r="T45" s="5">
-        <v>30</v>
-      </c>
-      <c r="U45" s="5">
-        <v>31</v>
-      </c>
-      <c r="V45" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="W45" s="5"/>
-    </row>
-    <row r="46" spans="2:23" ht="33" x14ac:dyDescent="0.25">
+      <c r="W45" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C46" s="9">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="D46" s="9">
         <v>8</v>
       </c>
       <c r="E46" s="5">
-        <v>2124</v>
+        <v>30491</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>108</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="5">
-        <v>0</v>
+      <c r="N46" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="5">
-        <v>0</v>
-      </c>
-      <c r="R46" s="5">
-        <v>0</v>
-      </c>
-      <c r="S46" s="5">
-        <v>33</v>
-      </c>
-      <c r="T46" s="5">
-        <v>30</v>
-      </c>
-      <c r="U46" s="5">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="V46" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="W46" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" ht="33" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="C47" s="9">
+        <v>412</v>
       </c>
       <c r="D47" s="9">
         <v>8</v>
       </c>
       <c r="E47" s="5">
-        <v>100</v>
+        <v>4247</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -4321,28 +4391,48 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
+      <c r="N47" s="5">
+        <v>0</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>0</v>
+      </c>
+      <c r="R47" s="5">
+        <v>0</v>
+      </c>
+      <c r="S47" s="5">
+        <v>0</v>
+      </c>
+      <c r="T47" s="5">
+        <v>0</v>
+      </c>
+      <c r="U47" s="5">
+        <v>0</v>
+      </c>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
     </row>
-    <row r="48" spans="2:23" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="5"/>
+    <row r="48" spans="2:23" ht="33" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="9">
+        <v>423</v>
+      </c>
+      <c r="D48" s="9">
+        <v>8</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
       <c r="F48" s="5" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -4351,206 +4441,453 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
+      <c r="N48" s="5">
+        <v>88</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" s="5">
+        <v>88</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R48" s="5">
+        <v>88</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T48" s="5">
+        <v>88</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="V48" s="5"/>
       <c r="W48" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" ht="33" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="9">
+        <v>466</v>
+      </c>
+      <c r="D49" s="9">
+        <v>8</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2124</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5">
+        <v>30</v>
+      </c>
+      <c r="O49" s="5">
+        <v>32</v>
+      </c>
+      <c r="P49" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>35</v>
+      </c>
+      <c r="R49" s="5">
+        <v>56</v>
+      </c>
+      <c r="S49" s="5">
+        <v>35</v>
+      </c>
+      <c r="T49" s="5">
+        <v>30</v>
+      </c>
+      <c r="U49" s="5">
+        <v>31</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W49" s="5"/>
+    </row>
+    <row r="50" spans="2:23" ht="33" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="9">
+        <v>466</v>
+      </c>
+      <c r="D50" s="9">
+        <v>8</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2124</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5">
+        <v>0</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>0</v>
+      </c>
+      <c r="R50" s="5">
+        <v>0</v>
+      </c>
+      <c r="S50" s="5">
+        <v>33</v>
+      </c>
+      <c r="T50" s="5">
+        <v>30</v>
+      </c>
+      <c r="U50" s="5">
+        <v>30</v>
+      </c>
+      <c r="V50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" ht="33" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="9">
+        <v>8</v>
+      </c>
+      <c r="E51" s="5">
+        <v>100</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+    </row>
+    <row r="52" spans="2:23" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B6:B9 B31:B32 B36 B38:B48 B18:B27 B12">
-    <cfRule type="expression" dxfId="43" priority="34">
+  <conditionalFormatting sqref="B6:B7 B35:B36 B40 B42:B52 B22:B31 B16 B11:B13">
+    <cfRule type="expression" dxfId="81" priority="46">
       <formula>ISNUMBER(SEARCH("batt",$B6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="35">
+    <cfRule type="expression" dxfId="80" priority="47">
       <formula>ISNUMBER(SEARCH("disp",$B6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="36">
+    <cfRule type="expression" dxfId="79" priority="48">
       <formula>ISNUMBER(SEARCH("ctrl",$B6))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D9 D31:D32 D36 D38:D48 D18:D27 D12">
-    <cfRule type="expression" dxfId="40" priority="33">
+  <conditionalFormatting sqref="D6:D7 D35:D36 D40 D42:D52 D22:D31 D16 D11:D13">
+    <cfRule type="expression" dxfId="78" priority="45">
       <formula>D6=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27:O28 Q28:U28 S27:U27 Q27 N29:U35 N38:U48 N36:Q37 T36:U37 N14:U14 N15:O17 S15:U15 S17:U17 T16:U16 N18:U26 N6:U8 N11:U11 N9:O10 R10:U10 T9:U9">
-    <cfRule type="expression" dxfId="39" priority="50">
-      <formula>COLUMN(N6)-COLUMN($N6)+1&gt;$D6</formula>
+  <conditionalFormatting sqref="N31:O32 Q32:U32 S31:U31 Q31 N33:U39 N42:U52 N40:Q41 T40:U41 N18:U18 N19:O21 S19:U19 S21:U21 T20:U20 N22:U30 N15:U15 N13:O14 R14:U14 T13:U13 N11:U12">
+    <cfRule type="expression" dxfId="77" priority="62">
+      <formula>COLUMN(N11)-COLUMN($N11)+1&gt;$D11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8 P28 R37:S37 P24:Q25 P10:Q10">
-    <cfRule type="expression" dxfId="38" priority="51">
-      <formula>COLUMN(P8)-COLUMN($N7)+1&gt;$D7</formula>
+  <conditionalFormatting sqref="R12 P32 R41:S41 P28:Q29 P14:Q14">
+    <cfRule type="expression" dxfId="76" priority="63">
+      <formula>COLUMN(P12)-COLUMN($N11)+1&gt;$D11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="37" priority="30">
-      <formula>ISNUMBER(SEARCH("batt",$B28))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="31">
-      <formula>ISNUMBER(SEARCH("disp",$B28))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="32">
-      <formula>ISNUMBER(SEARCH("ctrl",$B28))</formula>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="75" priority="42">
+      <formula>ISNUMBER(SEARCH("batt",$B32))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="43">
+      <formula>ISNUMBER(SEARCH("disp",$B32))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="44">
+      <formula>ISNUMBER(SEARCH("ctrl",$B32))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="34" priority="29">
-      <formula>D28=0</formula>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="72" priority="41">
+      <formula>D32=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="33" priority="26">
-      <formula>ISNUMBER(SEARCH("batt",$B29))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="27">
-      <formula>ISNUMBER(SEARCH("disp",$B29))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="28">
-      <formula>ISNUMBER(SEARCH("ctrl",$B29))</formula>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="71" priority="38">
+      <formula>ISNUMBER(SEARCH("batt",$B33))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="39">
+      <formula>ISNUMBER(SEARCH("disp",$B33))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="40">
+      <formula>ISNUMBER(SEARCH("ctrl",$B33))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="30" priority="25">
-      <formula>D29=0</formula>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="68" priority="37">
+      <formula>D33=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29:R30 P26:Q26 R11:S11">
-    <cfRule type="expression" dxfId="29" priority="53">
-      <formula>COLUMN(P11)-COLUMN($N9)+1&gt;$D9</formula>
+  <conditionalFormatting sqref="R33:R34 P30:Q30 R15:S15">
+    <cfRule type="expression" dxfId="67" priority="65">
+      <formula>COLUMN(P15)-COLUMN($N13)+1&gt;$D13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B35">
-    <cfRule type="expression" dxfId="28" priority="22">
-      <formula>ISNUMBER(SEARCH("batt",$B33))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="23">
-      <formula>ISNUMBER(SEARCH("disp",$B33))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="24">
-      <formula>ISNUMBER(SEARCH("ctrl",$B33))</formula>
+  <conditionalFormatting sqref="B37:B39">
+    <cfRule type="expression" dxfId="66" priority="34">
+      <formula>ISNUMBER(SEARCH("batt",$B37))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="35">
+      <formula>ISNUMBER(SEARCH("disp",$B37))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="36">
+      <formula>ISNUMBER(SEARCH("ctrl",$B37))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
-    <cfRule type="expression" dxfId="25" priority="20">
-      <formula>D33=0</formula>
+  <conditionalFormatting sqref="D37:D39">
+    <cfRule type="expression" dxfId="63" priority="32">
+      <formula>D37=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="24" priority="16">
-      <formula>D37=0</formula>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="expression" dxfId="62" priority="28">
+      <formula>D41=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="23" priority="17">
-      <formula>ISNUMBER(SEARCH("batt",$B37))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>ISNUMBER(SEARCH("disp",$B37))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>ISNUMBER(SEARCH("ctrl",$B37))</formula>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="61" priority="29">
+      <formula>ISNUMBER(SEARCH("batt",$B41))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="30">
+      <formula>ISNUMBER(SEARCH("disp",$B41))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="31">
+      <formula>ISNUMBER(SEARCH("ctrl",$B41))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B17">
-    <cfRule type="expression" dxfId="20" priority="13">
-      <formula>ISNUMBER(SEARCH("batt",$B13))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14">
-      <formula>ISNUMBER(SEARCH("disp",$B13))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15">
-      <formula>ISNUMBER(SEARCH("ctrl",$B13))</formula>
+  <conditionalFormatting sqref="B17:B21">
+    <cfRule type="expression" dxfId="58" priority="25">
+      <formula>ISNUMBER(SEARCH("batt",$B17))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="26">
+      <formula>ISNUMBER(SEARCH("disp",$B17))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="27">
+      <formula>ISNUMBER(SEARCH("ctrl",$B17))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D17">
-    <cfRule type="expression" dxfId="17" priority="12">
-      <formula>D13=0</formula>
+  <conditionalFormatting sqref="D17:D21">
+    <cfRule type="expression" dxfId="55" priority="24">
+      <formula>D17=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="16" priority="55">
-      <formula>COLUMN(N13)-COLUMN($N13)+1&gt;$D12</formula>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="expression" dxfId="54" priority="67">
+      <formula>COLUMN(N17)-COLUMN($N17)+1&gt;$D16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12:S12 U12">
-    <cfRule type="expression" dxfId="15" priority="56">
-      <formula>COLUMN(P12)-COLUMN($N13)+1&gt;$D12</formula>
+  <conditionalFormatting sqref="P16:S16 U16">
+    <cfRule type="expression" dxfId="53" priority="68">
+      <formula>COLUMN(P16)-COLUMN($N17)+1&gt;$D16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O13:U13">
-    <cfRule type="expression" dxfId="14" priority="57">
-      <formula>COLUMN(O13)-COLUMN(#REF!)+1&gt;$D13</formula>
+  <conditionalFormatting sqref="O17:U17">
+    <cfRule type="expression" dxfId="52" priority="69">
+      <formula>COLUMN(O17)-COLUMN(#REF!)+1&gt;$D17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="13" priority="59">
-      <formula>COLUMN(O14)-COLUMN($N13)+1&gt;$D12</formula>
+  <conditionalFormatting sqref="O18">
+    <cfRule type="expression" dxfId="51" priority="71">
+      <formula>COLUMN(O18)-COLUMN($N17)+1&gt;$D16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:R17">
-    <cfRule type="expression" dxfId="12" priority="11">
-      <formula>COLUMN(P17)-COLUMN($N19)+1&gt;$D17</formula>
+  <conditionalFormatting sqref="P21:R21 O6:U6">
+    <cfRule type="expression" dxfId="50" priority="23">
+      <formula>COLUMN(O6)-COLUMN($N8)+1&gt;$D6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P15:R16">
-    <cfRule type="expression" dxfId="11" priority="60">
-      <formula>COLUMN(P15)-COLUMN($N18)+1&gt;$D15</formula>
+  <conditionalFormatting sqref="P19:R20">
+    <cfRule type="expression" dxfId="49" priority="72">
+      <formula>COLUMN(P19)-COLUMN($N22)+1&gt;$D19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S16">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>COLUMN(S16)-COLUMN($N17)+1&gt;$D16</formula>
+  <conditionalFormatting sqref="S20">
+    <cfRule type="expression" dxfId="48" priority="22">
+      <formula>COLUMN(S20)-COLUMN($N21)+1&gt;$D20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T17">
-    <cfRule type="expression" dxfId="9" priority="62">
-      <formula>COLUMN(T17)-COLUMN($N13)+1&gt;$D12</formula>
+  <conditionalFormatting sqref="T21">
+    <cfRule type="expression" dxfId="47" priority="74">
+      <formula>COLUMN(T21)-COLUMN($N17)+1&gt;$D16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>ISNUMBER(SEARCH("batt",$B30))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISNUMBER(SEARCH("disp",$B30))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>ISNUMBER(SEARCH("ctrl",$B30))</formula>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="46" priority="19">
+      <formula>ISNUMBER(SEARCH("batt",$B34))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="20">
+      <formula>ISNUMBER(SEARCH("disp",$B34))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="21">
+      <formula>ISNUMBER(SEARCH("ctrl",$B34))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>D30=0</formula>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="43" priority="18">
+      <formula>D34=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R25">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>COLUMN(R25)-COLUMN($N24)+1&gt;$D24</formula>
+  <conditionalFormatting sqref="R29">
+    <cfRule type="expression" dxfId="42" priority="17">
+      <formula>COLUMN(R29)-COLUMN($N28)+1&gt;$D28</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>ISNUMBER(SEARCH("batt",$B10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISNUMBER(SEARCH("disp",$B10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>ISNUMBER(SEARCH("ctrl",$B10))</formula>
+  <conditionalFormatting sqref="B14:B15">
+    <cfRule type="expression" dxfId="41" priority="14">
+      <formula>ISNUMBER(SEARCH("batt",$B14))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="15">
+      <formula>ISNUMBER(SEARCH("disp",$B14))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="16">
+      <formula>ISNUMBER(SEARCH("ctrl",$B14))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>D10=0</formula>
+  <conditionalFormatting sqref="D14:D15">
+    <cfRule type="expression" dxfId="38" priority="13">
+      <formula>D14=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="37" priority="9">
+      <formula>D8=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="36" priority="10">
+      <formula>ISNUMBER(SEARCH("batt",$B8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="11">
+      <formula>ISNUMBER(SEARCH("disp",$B8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="12">
+      <formula>ISNUMBER(SEARCH("ctrl",$B8))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8:U10">
+    <cfRule type="expression" dxfId="33" priority="78">
+      <formula>COLUMN(O8)-COLUMN(#REF!)+1&gt;$D8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N10">
+    <cfRule type="expression" dxfId="32" priority="79">
+      <formula>COLUMN(N8)-COLUMN($N8)+1&gt;$D6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:U7">
+    <cfRule type="expression" dxfId="31" priority="81">
+      <formula>COLUMN(O7)-COLUMN($N11)+1&gt;$D7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D10">
+    <cfRule type="expression" dxfId="30" priority="1">
+      <formula>D9=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="expression" dxfId="29" priority="2">
+      <formula>ISNUMBER(SEARCH("batt",$B9))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="3">
+      <formula>ISNUMBER(SEARCH("disp",$B9))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="4">
+      <formula>ISNUMBER(SEARCH("ctrl",$B9))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
